--- a/notebooks_rotten_tomatoes/test_cases_rotten_tomatoes_rotulated_NO/summary.xlsx
+++ b/notebooks_rotten_tomatoes/test_cases_rotten_tomatoes_rotulated_NO/summary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4887,7 +4887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4913,55 +4913,85 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>passando(%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>falhando</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>falhando(%)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>FN(%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FP(%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>VN</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>VN(%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>VP</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>VP(%)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>FN_NO</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>FN_LE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>FN_NO</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>FP_NO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>FP_LE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>FP_TE</t>
         </is>
@@ -4979,37 +5009,67 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5025,37 +5085,67 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.3</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>83.3</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>83.3</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>83.3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>83.3</t>
+        </is>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>83.3</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5071,37 +5161,67 @@
       <c r="C4" t="n">
         <v>214</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>94</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>130</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>67</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>84</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>27</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>69.5</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Q4" t="n">
         <v>122</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>19</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>48</v>
       </c>
     </row>
@@ -5117,37 +5237,67 @@
       <c r="C5" t="n">
         <v>207</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>87</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>129</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>58</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>78</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>29</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>10</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Q5" t="n">
         <v>119</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>16</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>42</v>
       </c>
     </row>
@@ -5163,37 +5313,67 @@
       <c r="C6" t="n">
         <v>230</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.6</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>156</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>59.6</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>129</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>59.6</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>81</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>59.6</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>101</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>59.6</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>75</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>59.6</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>12</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
         <v>117</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>27</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>54</v>
       </c>
     </row>
@@ -5209,37 +5389,67 @@
       <c r="C7" t="n">
         <v>182</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.5</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>47</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>79.5</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>112</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>79.5</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>41</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>79.5</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>70</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>79.5</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>79.5</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>40</v>
       </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Q7" t="n">
         <v>68</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>10</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
         <v>30</v>
       </c>
     </row>

--- a/notebooks_rotten_tomatoes/test_cases_rotten_tomatoes_rotulated_NO/summary.xlsx
+++ b/notebooks_rotten_tomatoes/test_cases_rotten_tomatoes_rotulated_NO/summary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>71.3</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>28.7</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>19.7</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>26.5</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33.4</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>26.2</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>17.9</t>
+          <t>87.2</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>30.6</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="O7" t="n">
